--- a/app/postgres_data/daily/forecast_consumption/25_01_2023_forec_con.xlsx
+++ b/app/postgres_data/daily/forecast_consumption/25_01_2023_forec_con.xlsx
@@ -86,7 +86,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stand: 25.01.2023, 10:05</t>
+          <t>Stand: 25.01.2023, 10:23</t>
         </is>
       </c>
     </row>
